--- a/techniqo/data_new_ticker/TASTYBITE.xlsx
+++ b/techniqo/data_new_ticker/TASTYBITE.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1405"/>
+  <dimension ref="A1:G1407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49561,6 +49561,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1406" t="n">
+        <v>12135</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>12178.85</v>
+      </c>
+      <c r="D1406" t="n">
+        <v>11785.65</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>11917.1</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>1846</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1407" t="n">
+        <v>11999.95</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>12096.85</v>
+      </c>
+      <c r="D1407" t="n">
+        <v>11611</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>11702.95</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>776</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/TASTYBITE.xlsx
+++ b/techniqo/data_new_ticker/TASTYBITE.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1407"/>
+  <dimension ref="A1:G1409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49611,6 +49611,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1408" t="n">
+        <v>11710.05</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>11866</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>11798.15</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>319</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1409" t="n">
+        <v>11850</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>11990</v>
+      </c>
+      <c r="D1409" t="n">
+        <v>11390</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>11429.7</v>
+      </c>
+      <c r="F1409" t="n">
+        <v>1367</v>
+      </c>
+      <c r="G1409" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
